--- a/Output/May/productivity_agent/productivity_agent_2022-05-02.xlsx
+++ b/Output/May/productivity_agent/productivity_agent_2022-05-02.xlsx
@@ -1829,13 +1829,13 @@
         <v>262</v>
       </c>
       <c r="F3">
-        <v>8.583333333333334</v>
+        <v>8.583333333333332</v>
       </c>
       <c r="G3">
         <v>0.9666666666666667</v>
       </c>
       <c r="H3">
-        <v>9.550000000000001</v>
+        <v>9.549999999999999</v>
       </c>
       <c r="I3">
         <v>0.8987783595113438</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.03689320388349514</v>
+        <v>0.03689320388349515</v>
       </c>
       <c r="BP3">
         <v>0</v>
@@ -2036,10 +2036,10 @@
         <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.1223300970873786</v>
+        <v>0.1223300970873787</v>
       </c>
       <c r="BX3">
-        <v>0.8407766990291262</v>
+        <v>0.8407766990291263</v>
       </c>
       <c r="BY3">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.8064219888440635</v>
+        <v>0.8064219888440636</v>
       </c>
     </row>
     <row r="4" spans="1:105">
@@ -2149,7 +2149,7 @@
         <v>8.383333333333333</v>
       </c>
       <c r="G4">
-        <v>1.116666666666667</v>
+        <v>1.116666666666666</v>
       </c>
       <c r="H4">
         <v>9.5</v>
@@ -3097,13 +3097,13 @@
         <v>261</v>
       </c>
       <c r="F7">
-        <v>9.283333333333333</v>
+        <v>9.283333333333335</v>
       </c>
       <c r="G7">
         <v>0.2166666666666667</v>
       </c>
       <c r="H7">
-        <v>9.5</v>
+        <v>9.500000000000002</v>
       </c>
       <c r="I7">
         <v>0.9771929824561404</v>
@@ -3304,10 +3304,10 @@
         <v>0</v>
       </c>
       <c r="BW7">
-        <v>0.3249551166965889</v>
+        <v>0.3249551166965888</v>
       </c>
       <c r="BX7">
-        <v>0.6750448833034112</v>
+        <v>0.6750448833034111</v>
       </c>
       <c r="BY7">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="DA7">
-        <v>0.6672728197815603</v>
+        <v>0.6672728197815602</v>
       </c>
     </row>
     <row r="8" spans="1:105">
@@ -3414,13 +3414,13 @@
         <v>261</v>
       </c>
       <c r="F8">
-        <v>8.766666666666666</v>
+        <v>8.766666666666667</v>
       </c>
       <c r="G8">
         <v>0.7833333333333333</v>
       </c>
       <c r="H8">
-        <v>9.549999999999999</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="I8">
         <v>0.9179755671902269</v>
@@ -3624,7 +3624,7 @@
         <v>0.1311787072243346</v>
       </c>
       <c r="BX8">
-        <v>0.7547528517110268</v>
+        <v>0.7547528517110266</v>
       </c>
       <c r="BY8">
         <v>0.1140684410646388</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="DA8">
-        <v>0.7020564903044392</v>
+        <v>0.702056490304439</v>
       </c>
     </row>
     <row r="9" spans="1:105">
@@ -4048,13 +4048,13 @@
         <v>261</v>
       </c>
       <c r="F10">
-        <v>7.55</v>
+        <v>7.550000000000001</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.55</v>
+        <v>7.550000000000001</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -4255,10 +4255,10 @@
         <v>0</v>
       </c>
       <c r="BW10">
-        <v>0.5673289183222958</v>
+        <v>0.5673289183222957</v>
       </c>
       <c r="BX10">
-        <v>0.4326710816777042</v>
+        <v>0.4326710816777041</v>
       </c>
       <c r="BY10">
         <v>0</v>
@@ -4345,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="DA10">
-        <v>0.8321491451501909</v>
+        <v>0.8321491451501908</v>
       </c>
     </row>
     <row r="11" spans="1:105">
@@ -4365,13 +4365,13 @@
         <v>261</v>
       </c>
       <c r="F11">
-        <v>9.333333333333334</v>
+        <v>9.333333333333332</v>
       </c>
       <c r="G11">
         <v>0.2833333333333333</v>
       </c>
       <c r="H11">
-        <v>9.616666666666667</v>
+        <v>9.616666666666665</v>
       </c>
       <c r="I11">
         <v>0.9705372616984402</v>
@@ -4515,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="BD11">
-        <v>161.8285714285715</v>
+        <v>161.8285714285714</v>
       </c>
       <c r="BE11">
         <v>98.96103896103897</v>
@@ -4572,10 +4572,10 @@
         <v>0</v>
       </c>
       <c r="BW11">
-        <v>0.3124999999999999</v>
+        <v>0.3125000000000001</v>
       </c>
       <c r="BX11">
-        <v>0.6874999999999999</v>
+        <v>0.6875</v>
       </c>
       <c r="BY11">
         <v>0</v>
@@ -4662,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="DA11">
-        <v>0.9193832483306167</v>
+        <v>0.9193832483306168</v>
       </c>
     </row>
     <row r="12" spans="1:105">
@@ -4682,13 +4682,13 @@
         <v>261</v>
       </c>
       <c r="F12">
-        <v>9.333333333333334</v>
+        <v>9.333333333333332</v>
       </c>
       <c r="G12">
         <v>0.2166666666666667</v>
       </c>
       <c r="H12">
-        <v>9.550000000000001</v>
+        <v>9.549999999999999</v>
       </c>
       <c r="I12">
         <v>0.9773123909249564</v>
@@ -4892,7 +4892,7 @@
         <v>0.3232142857142857</v>
       </c>
       <c r="BX12">
-        <v>0.6767857142857142</v>
+        <v>0.6767857142857143</v>
       </c>
       <c r="BY12">
         <v>0</v>
@@ -4979,7 +4979,7 @@
         <v>0</v>
       </c>
       <c r="DA12">
-        <v>0.9544863031705135</v>
+        <v>0.9544863031705138</v>
       </c>
     </row>
     <row r="13" spans="1:105">
@@ -5953,7 +5953,7 @@
         <v>4.466666666666667</v>
       </c>
       <c r="G16">
-        <v>4.35</v>
+        <v>4.350000000000001</v>
       </c>
       <c r="H16">
         <v>8.816666666666666</v>
@@ -6901,13 +6901,13 @@
         <v>261</v>
       </c>
       <c r="F19">
-        <v>9.016666666666666</v>
+        <v>9.016666666666667</v>
       </c>
       <c r="G19">
         <v>0.1666666666666667</v>
       </c>
       <c r="H19">
-        <v>9.183333333333332</v>
+        <v>9.183333333333334</v>
       </c>
       <c r="I19">
         <v>0.9818511796733213</v>
@@ -7126,7 +7126,7 @@
         <v>0</v>
       </c>
       <c r="CC19">
-        <v>0.8003696857670981</v>
+        <v>0.8003696857670979</v>
       </c>
       <c r="CD19">
         <v>0</v>
@@ -7198,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="DA19">
-        <v>0.689418126823605</v>
+        <v>0.6894181268236048</v>
       </c>
     </row>
     <row r="20" spans="1:105">
@@ -7224,7 +7224,7 @@
         <v>2.65</v>
       </c>
       <c r="H20">
-        <v>8.966666666666667</v>
+        <v>8.966666666666665</v>
       </c>
       <c r="I20">
         <v>0.7044609665427509</v>
@@ -7497,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="CU20">
-        <v>0.6803462788111385</v>
+        <v>0.6803462788111386</v>
       </c>
       <c r="CV20">
         <v>0</v>
@@ -7515,7 +7515,7 @@
         <v>0</v>
       </c>
       <c r="DA20">
-        <v>0.6803462788111385</v>
+        <v>0.6803462788111386</v>
       </c>
     </row>
     <row r="21" spans="1:105">
@@ -8169,13 +8169,13 @@
         <v>262</v>
       </c>
       <c r="F23">
-        <v>5.2</v>
+        <v>5.199999999999999</v>
       </c>
       <c r="G23">
         <v>2.8</v>
       </c>
       <c r="H23">
-        <v>8</v>
+        <v>7.999999999999999</v>
       </c>
       <c r="I23">
         <v>0.65</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="AT23">
-        <v>2.433333333333333</v>
+        <v>2.433333333333334</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -8346,7 +8346,7 @@
         <v>0</v>
       </c>
       <c r="BM23">
-        <v>432.3287671232877</v>
+        <v>432.3287671232876</v>
       </c>
       <c r="BN23">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>0</v>
       </c>
       <c r="BQ23">
-        <v>0.3108974358974359</v>
+        <v>0.310897435897436</v>
       </c>
       <c r="BR23">
         <v>0</v>
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="CB23">
-        <v>0.06089743589743589</v>
+        <v>0.0608974358974359</v>
       </c>
       <c r="CC23">
         <v>0</v>
@@ -8403,7 +8403,7 @@
         <v>0</v>
       </c>
       <c r="CF23">
-        <v>0.4679487179487179</v>
+        <v>0.4679487179487181</v>
       </c>
       <c r="CG23">
         <v>0</v>
@@ -8460,13 +8460,13 @@
         <v>0</v>
       </c>
       <c r="CY23">
-        <v>0.5086220789685738</v>
+        <v>0.5086220789685737</v>
       </c>
       <c r="CZ23">
         <v>0</v>
       </c>
       <c r="DA23">
-        <v>0.489055819403413</v>
+        <v>0.4890558194034131</v>
       </c>
     </row>
     <row r="24" spans="1:105">
@@ -8585,7 +8585,7 @@
         <v>0.9166666666666667</v>
       </c>
       <c r="AM24">
-        <v>9.233333333333333</v>
+        <v>9.233333333333334</v>
       </c>
       <c r="AN24">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0.090311986863711</v>
       </c>
       <c r="BY24">
-        <v>0.9096880131362889</v>
+        <v>0.9096880131362891</v>
       </c>
       <c r="BZ24">
         <v>0</v>
@@ -8803,13 +8803,13 @@
         <v>261</v>
       </c>
       <c r="F25">
-        <v>9.1</v>
+        <v>9.100000000000001</v>
       </c>
       <c r="G25">
         <v>0.4166666666666667</v>
       </c>
       <c r="H25">
-        <v>9.516666666666666</v>
+        <v>9.516666666666667</v>
       </c>
       <c r="I25">
         <v>0.9562171628721542</v>
@@ -9010,10 +9010,10 @@
         <v>0</v>
       </c>
       <c r="BW25">
-        <v>0.4432234432234432</v>
+        <v>0.4432234432234431</v>
       </c>
       <c r="BX25">
-        <v>0.5567765567765568</v>
+        <v>0.5567765567765567</v>
       </c>
       <c r="BY25">
         <v>0</v>
@@ -9100,7 +9100,7 @@
         <v>0</v>
       </c>
       <c r="DA25">
-        <v>0.9504328330239261</v>
+        <v>0.950432833023926</v>
       </c>
     </row>
     <row r="26" spans="1:105">
@@ -9231,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="AQ26">
-        <v>3.15</v>
+        <v>3.149999999999999</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -9345,7 +9345,7 @@
         <v>0</v>
       </c>
       <c r="CC26">
-        <v>0.4748743718592965</v>
+        <v>0.4748743718592964</v>
       </c>
       <c r="CD26">
         <v>0</v>
@@ -9754,13 +9754,13 @@
         <v>262</v>
       </c>
       <c r="F28">
-        <v>8.300000000000001</v>
+        <v>8.299999999999999</v>
       </c>
       <c r="G28">
         <v>0.2166666666666667</v>
       </c>
       <c r="H28">
-        <v>8.516666666666667</v>
+        <v>8.516666666666666</v>
       </c>
       <c r="I28">
         <v>0.974559686888454</v>
@@ -9961,10 +9961,10 @@
         <v>0</v>
       </c>
       <c r="BW28">
-        <v>0.3995983935742972</v>
+        <v>0.3995983935742973</v>
       </c>
       <c r="BX28">
-        <v>0.6004016064257026</v>
+        <v>0.6004016064257028</v>
       </c>
       <c r="BY28">
         <v>0</v>
@@ -10051,7 +10051,7 @@
         <v>0</v>
       </c>
       <c r="DA28">
-        <v>0.7155305062724213</v>
+        <v>0.7155305062724215</v>
       </c>
     </row>
     <row r="29" spans="1:105">
@@ -10708,7 +10708,7 @@
         <v>4.366666666666667</v>
       </c>
       <c r="G31">
-        <v>0.9</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="H31">
         <v>5.266666666666667</v>
@@ -11549,7 +11549,7 @@
         <v>0.3090586145648312</v>
       </c>
       <c r="BX33">
-        <v>0.6909413854351687</v>
+        <v>0.6909413854351688</v>
       </c>
       <c r="BY33">
         <v>0</v>
@@ -11606,7 +11606,7 @@
         <v>1.185722928009679</v>
       </c>
       <c r="CQ33">
-        <v>0.8305319359303936</v>
+        <v>0.8305319359303935</v>
       </c>
       <c r="CR33">
         <v>0</v>
@@ -11656,13 +11656,13 @@
         <v>261</v>
       </c>
       <c r="F34">
-        <v>9.216666666666667</v>
+        <v>9.216666666666665</v>
       </c>
       <c r="G34">
         <v>0.4666666666666667</v>
       </c>
       <c r="H34">
-        <v>9.683333333333334</v>
+        <v>9.683333333333332</v>
       </c>
       <c r="I34">
         <v>0.9518072289156626</v>
@@ -11863,10 +11863,10 @@
         <v>0</v>
       </c>
       <c r="BW34">
-        <v>0.4231464737793851</v>
+        <v>0.4231464737793852</v>
       </c>
       <c r="BX34">
-        <v>0.5768535262206148</v>
+        <v>0.5768535262206149</v>
       </c>
       <c r="BY34">
         <v>0</v>
@@ -11973,7 +11973,7 @@
         <v>262</v>
       </c>
       <c r="F35">
-        <v>6.8</v>
+        <v>6.799999999999999</v>
       </c>
       <c r="G35">
         <v>0.6166666666666667</v>
@@ -11982,7 +11982,7 @@
         <v>7.416666666666666</v>
       </c>
       <c r="I35">
-        <v>0.9168539325842697</v>
+        <v>0.9168539325842696</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -12207,7 +12207,7 @@
         <v>0</v>
       </c>
       <c r="CF35">
-        <v>0.3431372549019607</v>
+        <v>0.3431372549019608</v>
       </c>
       <c r="CG35">
         <v>0</v>
@@ -12270,7 +12270,7 @@
         <v>0</v>
       </c>
       <c r="DA35">
-        <v>0.6736304059786287</v>
+        <v>0.6736304059786289</v>
       </c>
     </row>
     <row r="36" spans="1:105">
@@ -12293,7 +12293,7 @@
         <v>4.8</v>
       </c>
       <c r="G36">
-        <v>3.366666666666667</v>
+        <v>3.366666666666666</v>
       </c>
       <c r="H36">
         <v>8.166666666666666</v>
@@ -12607,13 +12607,13 @@
         <v>261</v>
       </c>
       <c r="F37">
-        <v>8.449999999999999</v>
+        <v>8.450000000000001</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>8.449999999999999</v>
+        <v>8.450000000000001</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -12814,10 +12814,10 @@
         <v>0</v>
       </c>
       <c r="BW37">
-        <v>0.7771203155818541</v>
+        <v>0.7771203155818539</v>
       </c>
       <c r="BX37">
-        <v>0.222879684418146</v>
+        <v>0.2228796844181459</v>
       </c>
       <c r="BY37">
         <v>0</v>
@@ -12904,7 +12904,7 @@
         <v>0</v>
       </c>
       <c r="DA37">
-        <v>0.8263987647357315</v>
+        <v>0.8263987647357313</v>
       </c>
     </row>
     <row r="38" spans="1:105">
@@ -13247,7 +13247,7 @@
         <v>2.133333333333333</v>
       </c>
       <c r="H39">
-        <v>9.616666666666667</v>
+        <v>9.616666666666665</v>
       </c>
       <c r="I39">
         <v>0.7781629116117851</v>
@@ -13451,7 +13451,7 @@
         <v>0.6592427616926504</v>
       </c>
       <c r="BX39">
-        <v>0.07126948775055679</v>
+        <v>0.0712694877505568</v>
       </c>
       <c r="BY39">
         <v>0.2694877505567929</v>
@@ -13538,7 +13538,7 @@
         <v>0</v>
       </c>
       <c r="DA39">
-        <v>0.5991023687366437</v>
+        <v>0.5991023687366438</v>
       </c>
     </row>
     <row r="40" spans="1:105">
@@ -13881,10 +13881,10 @@
         <v>2.55</v>
       </c>
       <c r="H41">
-        <v>9.149999999999999</v>
+        <v>9.15</v>
       </c>
       <c r="I41">
-        <v>0.7213114754098361</v>
+        <v>0.721311475409836</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -17682,10 +17682,10 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>9.166666666666668</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="H53">
-        <v>9.166666666666668</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -17996,13 +17996,13 @@
         <v>265</v>
       </c>
       <c r="F54">
-        <v>7.550000000000001</v>
+        <v>7.55</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>7.550000000000001</v>
+        <v>7.55</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -18098,7 +18098,7 @@
         <v>0</v>
       </c>
       <c r="AN54">
-        <v>7.550000000000001</v>
+        <v>7.55</v>
       </c>
       <c r="AO54">
         <v>0</v>
@@ -18155,7 +18155,7 @@
         <v>0</v>
       </c>
       <c r="BG54">
-        <v>184.1059602649006</v>
+        <v>184.1059602649007</v>
       </c>
       <c r="BH54">
         <v>0</v>
@@ -18269,7 +18269,7 @@
         <v>0</v>
       </c>
       <c r="CS54">
-        <v>0.6136865342163355</v>
+        <v>0.6136865342163356</v>
       </c>
       <c r="CT54">
         <v>0</v>
@@ -18293,7 +18293,7 @@
         <v>0</v>
       </c>
       <c r="DA54">
-        <v>0.6136865342163355</v>
+        <v>0.6136865342163356</v>
       </c>
     </row>
     <row r="55" spans="1:105">
@@ -20221,10 +20221,10 @@
         <v>5.066666666666666</v>
       </c>
       <c r="H61">
-        <v>8.783333333333333</v>
+        <v>8.783333333333331</v>
       </c>
       <c r="I61">
-        <v>0.4231499051233397</v>
+        <v>0.4231499051233398</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -20326,7 +20326,7 @@
         <v>0</v>
       </c>
       <c r="AQ61">
-        <v>1.983333333333333</v>
+        <v>1.983333333333334</v>
       </c>
       <c r="AR61">
         <v>0</v>
@@ -20383,7 +20383,7 @@
         <v>0</v>
       </c>
       <c r="BJ61">
-        <v>321.1764705882353</v>
+        <v>321.1764705882352</v>
       </c>
       <c r="BK61">
         <v>0</v>
@@ -20440,7 +20440,7 @@
         <v>0</v>
       </c>
       <c r="CC61">
-        <v>0.5336322869955157</v>
+        <v>0.5336322869955158</v>
       </c>
       <c r="CD61">
         <v>0</v>
@@ -20497,7 +20497,7 @@
         <v>0</v>
       </c>
       <c r="CV61">
-        <v>0.4423918327661643</v>
+        <v>0.4423918327661642</v>
       </c>
       <c r="CW61">
         <v>0</v>
@@ -21166,13 +21166,13 @@
         <v>264</v>
       </c>
       <c r="F64">
-        <v>5.85</v>
+        <v>5.850000000000001</v>
       </c>
       <c r="G64">
         <v>1.05</v>
       </c>
       <c r="H64">
-        <v>6.899999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="I64">
         <v>0.8478260869565217</v>
@@ -21286,7 +21286,7 @@
         <v>0</v>
       </c>
       <c r="AT64">
-        <v>5.85</v>
+        <v>5.850000000000001</v>
       </c>
       <c r="AU64">
         <v>0</v>
@@ -21343,7 +21343,7 @@
         <v>0</v>
       </c>
       <c r="BM64">
-        <v>735.0427350427351</v>
+        <v>735.042735042735</v>
       </c>
       <c r="BN64">
         <v>0</v>
@@ -21457,13 +21457,13 @@
         <v>0</v>
       </c>
       <c r="CY64">
-        <v>0.864756158873806</v>
+        <v>0.8647561588738059</v>
       </c>
       <c r="CZ64">
         <v>0</v>
       </c>
       <c r="DA64">
-        <v>0.864756158873806</v>
+        <v>0.8647561588738059</v>
       </c>
     </row>
     <row r="65" spans="1:105">
@@ -21486,7 +21486,7 @@
         <v>1.183333333333333</v>
       </c>
       <c r="G65">
-        <v>9.233333333333334</v>
+        <v>9.233333333333333</v>
       </c>
       <c r="H65">
         <v>10.41666666666667</v>
@@ -24336,13 +24336,13 @@
         <v>261</v>
       </c>
       <c r="F74">
-        <v>9.35</v>
+        <v>9.350000000000001</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74">
-        <v>9.35</v>
+        <v>9.350000000000001</v>
       </c>
       <c r="I74">
         <v>1</v>
@@ -24438,7 +24438,7 @@
         <v>0</v>
       </c>
       <c r="AN74">
-        <v>9.35</v>
+        <v>9.350000000000001</v>
       </c>
       <c r="AO74">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="CS74">
-        <v>0.439572192513369</v>
+        <v>0.4395721925133689</v>
       </c>
       <c r="CT74">
         <v>0</v>
@@ -24633,7 +24633,7 @@
         <v>0</v>
       </c>
       <c r="DA74">
-        <v>0.439572192513369</v>
+        <v>0.4395721925133689</v>
       </c>
     </row>
     <row r="75" spans="1:105">
